--- a/data/income_statement/2digits/size/31_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/31_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>31-Manufacture of furniture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>31-Manufacture of furniture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>757524.76552</v>
+        <v>818743.25248</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>759733.23372</v>
+        <v>824148.70101</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>830366.5879500001</v>
+        <v>914152.94812</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>831351.10856</v>
+        <v>942752.5234600001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>810188.4084900001</v>
+        <v>948637.35603</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>816400.91798</v>
+        <v>992238.1361799999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>889759.2084199999</v>
+        <v>1122891.00224</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>905787.7130099999</v>
+        <v>1172144.87133</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>981555.29784</v>
+        <v>1298504.10667</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2492372.49039</v>
+        <v>2805179.26939</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2690234.25749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3191850.63748</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3492242.575</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>697822.36687</v>
+        <v>754308.78423</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>692108.1047799999</v>
+        <v>752124.2765</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>767472.7217999999</v>
+        <v>844417.8071100001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>758231.24593</v>
+        <v>862204.3280399999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>762991.89535</v>
+        <v>895320.47642</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>761265.40021</v>
+        <v>925552.65332</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>819668.49625</v>
+        <v>1040797.59804</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>839468.91868</v>
+        <v>1091955.6218</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>908966.61863</v>
+        <v>1207010.2456</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2246188.96365</v>
+        <v>2524119.35464</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2376970.69999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2827056.19551</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2991900.889</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>54606.93393</v>
+        <v>58245.83814</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>62855.30376</v>
+        <v>65479.95982</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>56752.99247</v>
+        <v>60776.35177</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>65896.00529</v>
+        <v>71114.98273999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>41341.50059</v>
+        <v>45415.03266</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>49427.56322</v>
+        <v>58674.93670000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>63685.56478</v>
+        <v>72263.52998000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>58592.27103</v>
+        <v>67218.16108000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>63752.27784</v>
+        <v>75569.77125000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>226503.6761</v>
+        <v>251091.44078</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>290107.09842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>330608.4662</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>462058.635</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5095.46472</v>
+        <v>6188.63011</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4769.82518</v>
+        <v>6544.464690000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6140.87368</v>
+        <v>8958.78924</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7223.85734</v>
+        <v>9433.212680000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5855.012549999999</v>
+        <v>7901.84695</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5707.954549999999</v>
+        <v>8010.54616</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6405.14739</v>
+        <v>9829.874220000002</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>7726.5233</v>
+        <v>12971.08845</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8836.40137</v>
+        <v>15924.08982</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>19679.85064</v>
+        <v>29968.47397</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>23156.45908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34185.97577</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>38283.051</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3885.53557</v>
+        <v>4813.240849999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3896.137</v>
+        <v>4414.44471</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3892.87816</v>
+        <v>5718.27597</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3634.98465</v>
+        <v>5031.72885</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4815.47111</v>
+        <v>5642.48829</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3303.53425</v>
+        <v>4385.30246</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6363.3894</v>
+        <v>7249.11281</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4624.27696</v>
+        <v>8980.29227</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3876.2273</v>
+        <v>5578.60189</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>15112.26676</v>
+        <v>20393.31102</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>16168.76476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20908.43866</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>59993.579</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3139.13703</v>
+        <v>3849.16955</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2302.8521</v>
+        <v>2693.85263</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3575.01677</v>
+        <v>5205.02279</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2989.15783</v>
+        <v>4162.80564</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4399.863139999999</v>
+        <v>5203.218559999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2479.9038</v>
+        <v>3511.11898</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6008.37875</v>
+        <v>6856.90224</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3770.77838</v>
+        <v>8089.95184</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3141.96464</v>
+        <v>4795.86046</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>13323.43035</v>
+        <v>15824.49918</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>14272.98738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17547.39769</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>54334.991</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>640.24904</v>
+        <v>857.9218000000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1511.10622</v>
+        <v>1633.00071</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>268.0195900000001</v>
+        <v>447.61273</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>546.43175</v>
+        <v>760.3754</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>232.94377</v>
+        <v>251.35505</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>663.7289300000001</v>
+        <v>690.0602299999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>219.95452</v>
+        <v>236.06988</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>534.6538499999999</v>
+        <v>552.4462600000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>291.44692</v>
+        <v>311.56211</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>554.68025</v>
+        <v>3309.81619</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>346.37684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1741.76995</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2608.697</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>106.1495</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>82.17868</v>
+        <v>87.59137</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>49.84180000000001</v>
+        <v>65.64045</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>99.39507</v>
+        <v>108.54781</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>182.6642</v>
+        <v>187.91468</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>159.90152</v>
+        <v>184.12325</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>135.05613</v>
+        <v>156.14069</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>318.84473</v>
+        <v>337.89417</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>442.81574</v>
+        <v>471.17932</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1234.15616</v>
+        <v>1258.99565</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1549.40054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1619.27102</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3049.891</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>753639.2299500001</v>
+        <v>813930.01163</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>755837.09672</v>
+        <v>819734.2563</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>826473.70979</v>
+        <v>908434.67215</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>827716.12391</v>
+        <v>937720.79461</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>805372.93738</v>
+        <v>942994.86774</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>813097.38373</v>
+        <v>987852.83372</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>883395.8190199999</v>
+        <v>1115641.88943</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>901163.4360499999</v>
+        <v>1163164.57906</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>977679.07054</v>
+        <v>1292925.50478</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2477260.22363</v>
+        <v>2784785.95837</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2674065.49273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3170942.19882</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3432248.996</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>638908.14966</v>
+        <v>687923.52899</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>635022.5129600001</v>
+        <v>688041.65815</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>694862.52598</v>
+        <v>761168.6705700001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>693216.4632100001</v>
+        <v>779898.00901</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>679223.20618</v>
+        <v>791899.9237200001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>688245.70464</v>
+        <v>830685.64668</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>753648.9375700001</v>
+        <v>946118.28805</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>764819.63685</v>
+        <v>977295.2191</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>829012.178</v>
+        <v>1089386.11082</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2132730.9257</v>
+        <v>2387123.23139</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2283819.64903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2694849.12927</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2901517.612</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>331997.00533</v>
+        <v>361620.06302</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>317863.67676</v>
+        <v>350893.32438</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>356781.55455</v>
+        <v>394025.53471</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>352673.95638</v>
+        <v>395687.68975</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>375728.37936</v>
+        <v>444412.261</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>372598.09962</v>
+        <v>466517.75314</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>382513.82115</v>
+        <v>515000.84425</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>384126.89286</v>
+        <v>522775.71925</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>453964.59743</v>
+        <v>627998.26621</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1158173.26275</v>
+        <v>1297538.23606</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1337475.58489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1574542.47439</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1607412.183</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>270519.35556</v>
+        <v>288394.73328</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>281521.57048</v>
+        <v>300206.24632</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>292855.61527</v>
+        <v>319094.91314</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>290368.02382</v>
+        <v>326529.63074</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>257194.83596</v>
+        <v>296270.1682</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>276442.58264</v>
+        <v>320282.34429</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>326031.00284</v>
+        <v>376969.89532</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>328747.71223</v>
+        <v>392443.81055</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>314385.57591</v>
+        <v>387113.50356</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>830649.21209</v>
+        <v>931453.0570199999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>817895.90887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>958156.73669</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1112600.381</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>35587.93014</v>
+        <v>36844.30511</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>34884.22</v>
+        <v>36174.04173</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>43586.07201</v>
+        <v>46279.31804999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>48495.56415999999</v>
+        <v>55420.82889</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>45237.05467</v>
+        <v>49979.01042</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36809.06148</v>
+        <v>41396.64538</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>42997.07023</v>
+        <v>50555.86645</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>48394.31045</v>
+        <v>57465.17404</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>56922.63821</v>
+        <v>69234.23437999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>136347.94729</v>
+        <v>148444.83459</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>115829.96931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>147064.16221</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>158382.661</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>803.8586299999999</v>
+        <v>1064.42758</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>753.04572</v>
+        <v>768.04572</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1639.28415</v>
+        <v>1768.90467</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1678.91885</v>
+        <v>2259.85963</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1062.93619</v>
+        <v>1238.4841</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2395.9609</v>
+        <v>2488.90387</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2107.04335</v>
+        <v>3591.68203</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3550.72131</v>
+        <v>4610.51526</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3739.36645</v>
+        <v>5040.10667</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7560.50357</v>
+        <v>9687.103720000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>12618.18596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15085.75598</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23122.387</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>114731.08029</v>
+        <v>126006.48264</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>120814.58376</v>
+        <v>131692.59815</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>131611.18381</v>
+        <v>147266.00158</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>134499.6607</v>
+        <v>157822.7856</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>126149.7312</v>
+        <v>151094.94402</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>124851.67909</v>
+        <v>157167.18704</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>129746.88145</v>
+        <v>169523.60138</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>136343.7992</v>
+        <v>185869.35996</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>148666.89254</v>
+        <v>203539.39396</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>344529.29793</v>
+        <v>397662.72698</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>390245.8437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>476093.06955</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>530731.384</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>105326.90861</v>
+        <v>116569.65049</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>111602.86358</v>
+        <v>123200.86166</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>118729.22499</v>
+        <v>135919.18333</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>128102.29348</v>
+        <v>148926.85471</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>118631.85035</v>
+        <v>145504.05714</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>120243.9022</v>
+        <v>150542.40836</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>127267.06835</v>
+        <v>170488.05123</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>140603.94818</v>
+        <v>195201.74555</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>145498.12672</v>
+        <v>208892.42869</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>309721.51093</v>
+        <v>365877.93409</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>355417.54194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>438511.52638</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>459802.484</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>169.63948</v>
+        <v>170.33524</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>137.92836</v>
+        <v>184.23587</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>258.32988</v>
@@ -1586,7 +1572,7 @@
         <v>391.70863</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>141.1552</v>
+        <v>265.77718</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>399.41728</v>
@@ -1595,178 +1581,203 @@
         <v>358.37459</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>199.32563</v>
+        <v>398.88937</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>163.66962</v>
+        <v>186.17716</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>347.68902</v>
+        <v>388.71178</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>269.54155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>368.8343</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1065.04</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17280.16281</v>
+        <v>19271.83663</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20278.81711</v>
+        <v>22274.21502</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>20395.21098</v>
+        <v>23406.26963</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>19634.56819</v>
+        <v>23080.16057</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>19055.99877</v>
+        <v>22971.29589</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17928.38614</v>
+        <v>23423.60961</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21652.69876</v>
+        <v>28800.24381</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26873.97242</v>
+        <v>35883.2159</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>23309.11915</v>
+        <v>31762.51341</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>54657.3725</v>
+        <v>63512.91901</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>64352.17824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>78787.97005</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>80542.264</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>87877.10631999999</v>
+        <v>97127.47862000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>91186.11811</v>
+        <v>100742.41077</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>98075.68412999999</v>
+        <v>112254.58382</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>108076.01666</v>
+        <v>125454.98551</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>99434.69637999999</v>
+        <v>122266.98407</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>101916.09878</v>
+        <v>126719.38147</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>105255.995</v>
+        <v>141329.43283</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>113530.65013</v>
+        <v>158919.64028</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>122025.33795</v>
+        <v>176943.73812</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>254716.44941</v>
+        <v>301976.3033</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>290795.82215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>359354.7220299999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>378195.18</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9404.171679999999</v>
+        <v>9436.83215</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>9211.72018</v>
+        <v>8491.736489999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>12881.95882</v>
+        <v>11346.81825</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>6397.36722</v>
+        <v>8895.930890000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>7517.88085</v>
+        <v>5590.88688</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4607.77689</v>
+        <v>6624.778679999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2479.8131</v>
+        <v>-964.44985</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-4260.148980000001</v>
+        <v>-9332.38559</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3168.76582</v>
+        <v>-5353.03473</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>34807.787</v>
+        <v>31784.79289</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>34828.30175999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37581.54317</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>70928.89999999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2287.83169</v>
+        <v>4383.52646</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2520.06447</v>
+        <v>4345.72471</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3607.9599</v>
+        <v>8219.055329999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2257.46211</v>
+        <v>5340.47079</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2553.34353</v>
+        <v>7858.12552</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1811.4448</v>
+        <v>6130.468150000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1997.85986</v>
+        <v>11561.30308</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3171.71476</v>
+        <v>14345.59335</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3919.781</v>
+        <v>17026.08507</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>18428.01017</v>
+        <v>109240.78575</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>16150.94608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>31319.76949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>43149.785</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8.937389999999999</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>20.61046</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0.15413</v>
@@ -1799,22 +1810,27 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>69.03343</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3.914</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>856.15076</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>691.11857</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>808.9851600000001</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1835,70 +1851,80 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>4317.2125</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>300.91298</v>
+        <v>666.8785600000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>190.60278</v>
+        <v>311.2314</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>233.78036</v>
+        <v>2313.6687</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>450.74215</v>
+        <v>573.6261500000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>238.67245</v>
+        <v>865.35364</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>241.66835</v>
+        <v>576.7244899999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>122.30939</v>
+        <v>742.89647</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>433.52027</v>
+        <v>2243.77036</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>293.82502</v>
+        <v>2964.92461</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1937.0975</v>
+        <v>3616.54241</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1947.67397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3326.86794</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2751.789</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>20.51407</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>164.62109</v>
+        <v>164.6286</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>446.53802</v>
+        <v>464.82734</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>244.16475</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>384.09886</v>
+        <v>387.45226</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>42.99441</v>
@@ -1907,139 +1933,159 @@
         <v>6.88079</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.67013</v>
+        <v>1.17565</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.88334</v>
+        <v>7.80714</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3.79044</v>
+        <v>60.81703</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1.84834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>68.01707</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>93.715</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>79.61722</v>
+        <v>81.89955</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>46.82602</v>
+        <v>73.19852</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>66.6558</v>
+        <v>93.0283</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>233.88308</v>
+        <v>233.90065</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>34.57830999999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>37.42018</v>
+        <v>38.86936</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>35.49208</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2.61356</v>
+        <v>72.33149</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>445.05853</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>85.61994</v>
+        <v>511.53815</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>633.735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>683.36999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1165.975</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>35.43496</v>
+        <v>45.34494</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>43.59672</v>
+        <v>44.25257</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>37.36151</v>
+        <v>37.59436</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>35.31992</v>
+        <v>103.09622</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>63.92863</v>
+        <v>173.55479</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>19.83045</v>
+        <v>132.30588</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7.36218</v>
+        <v>102.8347</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>9.52549</v>
+        <v>117.46986</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7.13191</v>
+        <v>10.67639</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>188.92306</v>
+        <v>189.36383</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>94.36486000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>97.01277999999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>198.524</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>706.7795</v>
+        <v>1018.19775</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>946.1329599999999</v>
+        <v>1211.28296</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1632.68933</v>
+        <v>2141.41669</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>462.28827</v>
+        <v>1042.92745</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>931.8745600000001</v>
+        <v>1574.68453</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>576.23059</v>
+        <v>914.09313</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1321.45587</v>
+        <v>4180.82341</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1362.50884</v>
+        <v>3839.69333</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1898.67666</v>
+        <v>4214.00677</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9007.031650000001</v>
+        <v>82827.17453</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5684.33809</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7428.57687</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15632.282</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1.72315</v>
+        <v>26.15382</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>5.223</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>44.872</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.80618</v>
@@ -2090,7 +2141,7 @@
         <v>25.24278</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>113.71354</v>
+        <v>122.06954</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>19.26309</v>
@@ -2099,13 +2150,13 @@
         <v>6.57551</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>4.34749</v>
+        <v>10.23659</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>6.68531</v>
+        <v>35.06265</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>8.354709999999999</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>9.03472</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>4.525</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1121.82939</v>
+        <v>1671.79726</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1122.6052</v>
+        <v>1844.33239</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1165.6921</v>
+        <v>2334.292</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>717.3504</v>
+        <v>3020.68603</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>862.98204</v>
+        <v>4785.29331</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>883.2958599999999</v>
+        <v>4391.04525</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>535.50414</v>
+        <v>6482.13904</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1356.19116</v>
+        <v>8015.47955</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1719.10994</v>
+        <v>9375.102789999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7196.50981</v>
+        <v>17709.09953</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7783.76282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19641.66841</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23254.189</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1726.22386</v>
+        <v>2408.50481</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2259.48138</v>
+        <v>3404.2349</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2047.81093</v>
+        <v>3201.00255</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3391.37626</v>
+        <v>4707.05203</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1655.26846</v>
+        <v>2862.22397</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2176.87422</v>
+        <v>3379.74638</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1848.04628</v>
+        <v>6452.31204</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2681.9545</v>
+        <v>6611.76561</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2182.21894</v>
+        <v>10984.74368</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13703.13064</v>
+        <v>83127.28103</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9994.11635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17261.82887</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>20279.963</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>134.37058</v>
+        <v>160.3256</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>190.55783</v>
+        <v>272.29294</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>319.16309</v>
+        <v>389.55683</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>184.73627</v>
+        <v>203.54526</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>196.2402</v>
+        <v>219.06501</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>108.80318</v>
+        <v>148.8028</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>116.94232</v>
+        <v>176.16511</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>64.11255</v>
+        <v>90.57508</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>55.06978</v>
+        <v>180.16983</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>381.7447</v>
+        <v>489.6425</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>795.5978299999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>853.69128</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>816.346</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>243.47419</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>383.44511</v>
+        <v>1067.69738</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>127.01601</v>
+        <v>174.74451</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1258.27193</v>
+        <v>1983.35993</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>369.87398</v>
+        <v>392.8998</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>0</v>
+        <v>237.10591</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>136.9074</v>
+        <v>807.8515699999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1105.35911</v>
+        <v>2026.98314</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>326.91805</v>
+        <v>6103.10811</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>656.8914599999999</v>
+        <v>710.77218</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3149.45429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3814.05115</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3389.737</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.99001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>8.856680000000001</v>
+        <v>11.97958</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>12.87488</v>
@@ -2288,13 +2364,13 @@
         <v>5.12809</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2.27453</v>
+        <v>72.88632000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9.536670000000001</v>
+        <v>23.94396</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>23.33601</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>6.29027</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>23.19161</v>
+        <v>63.36606</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>26.80159</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>47.225</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>578.91683</v>
+        <v>1031.65099</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>890.98798</v>
+        <v>1062.02508</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>773.85576</v>
+        <v>1095.00526</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>624.75989</v>
+        <v>869.0440500000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>463.25357</v>
+        <v>671.84441</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>450.34513</v>
+        <v>674.50411</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>693.29249</v>
+        <v>3770.47029</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>890.6350699999999</v>
+        <v>3325.74289</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>903.4075300000001</v>
+        <v>3413.12982</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7529.59714</v>
+        <v>76003.57872</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4335.94259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10448.53873</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12213.589</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.743</v>
@@ -2366,7 +2452,7 @@
         <v>8.075710000000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>24.43067</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
@@ -2375,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>2.80931</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>42.9394</v>
+        <v>42.93946</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>1.47691</v>
@@ -2402,616 +2493,694 @@
         <v>0.01224</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>14.67421</v>
+        <v>93.14133</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>33.80592</v>
+        <v>43.59326</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>67.77160000000001</v>
+        <v>67.77174000000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.00031</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.0001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>721.78985</v>
+        <v>925.38156</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>775.7696500000001</v>
+        <v>980.3757900000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>803.20508</v>
+        <v>1517.12496</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1295.73016</v>
+        <v>1544.75766</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>589.82026</v>
+        <v>1437.5045</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1608.18924</v>
+        <v>2295.3896</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>900.9040699999999</v>
+        <v>1674.48882</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>554.07617</v>
+        <v>1097.88345</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>890.53331</v>
+        <v>1282.04565</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5111.70542</v>
+        <v>5859.92097</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1686.32005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2118.74602</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3812.364</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5182.11896</v>
+        <v>7686.75762</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3877.3468</v>
+        <v>5649.80576</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3955.76526</v>
+        <v>8008.59193</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5236.30169</v>
+        <v>8199.07762</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3793.18045</v>
+        <v>9004.95839</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4756.19816</v>
+        <v>8014.01017</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5654.80605</v>
+        <v>11818.7063</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4550.12134</v>
+        <v>13318.05927</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4541.91234</v>
+        <v>15417.22392</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24548.70758</v>
+        <v>40368.86322</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>25198.70407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>49985.90708</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>30880.245</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4815.60305</v>
+        <v>7258.9667</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3615.32897</v>
+        <v>5362.7316</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3694.36744</v>
+        <v>7649.05709</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5053.069469999999</v>
+        <v>7551.86545</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3635.33732</v>
+        <v>8355.92316</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4615.03491</v>
+        <v>7714.500599999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5530.842559999999</v>
+        <v>11440.46829</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4455.14094</v>
+        <v>12582.90632</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4373.86605</v>
+        <v>14807.78435</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>23769.99027</v>
+        <v>38944.70186</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>24259.54968</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>47389.83803</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>29776.113</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>366.51591</v>
+        <v>427.79092</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>262.01783</v>
+        <v>287.0741599999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>261.39782</v>
+        <v>359.53484</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>183.23222</v>
+        <v>647.21217</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>157.84313</v>
+        <v>649.03523</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>141.16325</v>
+        <v>299.50957</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>123.96349</v>
+        <v>378.23801</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>94.98039999999999</v>
+        <v>735.1529499999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>168.04629</v>
+        <v>609.43957</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>778.7173100000001</v>
+        <v>1424.16136</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>939.15439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2596.06905</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1104.132</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4783.66055</v>
+        <v>3725.09618</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5594.95647</v>
+        <v>3783.42054</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>10486.34253</v>
+        <v>8356.2791</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>27.15138</v>
+        <v>1330.27203</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4622.77547</v>
+        <v>1581.83004</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-513.85069</v>
+        <v>1361.49028</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-3025.17937</v>
+        <v>-7674.16511</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8320.510059999999</v>
+        <v>-14916.61712</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>364.41554</v>
+        <v>-14728.91726</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>14983.95895</v>
+        <v>17529.43439</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>15786.42742</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1653.57671</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>62918.477</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2552.79111</v>
+        <v>5282.05412</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3087.07706</v>
+        <v>5318.698780000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3295.21666</v>
+        <v>12949.58124</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4711.37925</v>
+        <v>8157.81378</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3128.17484</v>
+        <v>6534.04372</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3109.53</v>
+        <v>6930.06979</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3297.24862</v>
+        <v>7040.79702</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4892.905059999999</v>
+        <v>24035.44218</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6970.08691</v>
+        <v>20310.22246</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>14366.77285</v>
+        <v>18141.0601</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17933.59992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34537.69884</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>33750.308</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>53.74392</v>
+        <v>278.5436</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>38.22909</v>
+        <v>53.95588</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>110.55366</v>
+        <v>250.41087</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>46.74732</v>
+        <v>48.37707</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7.555149999999999</v>
+        <v>10.3391</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>61.85736</v>
+        <v>68.21329</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>32.90122</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>102.06728</v>
+        <v>102.06729</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>37.584</v>
+        <v>79.89372999999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>128.31809</v>
+        <v>158.6413</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>91.38808999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>99.46824000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>260.726</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2499.04719</v>
+        <v>5003.51052</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3048.84797</v>
+        <v>5264.7429</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3184.663</v>
+        <v>12699.17037</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4664.63193</v>
+        <v>8109.43671</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3120.61969</v>
+        <v>6523.70462</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3047.67264</v>
+        <v>6861.8565</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3264.3474</v>
+        <v>7007.8958</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4790.83778</v>
+        <v>23933.37489</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6932.50291</v>
+        <v>20230.32873</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>14238.45476</v>
+        <v>17982.4188</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17842.21183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34438.2306</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>33489.582</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5775.85985</v>
+        <v>8111.18906</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4432.9664</v>
+        <v>7176.095780000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>15128.86428</v>
+        <v>24427.43562</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6434.26052</v>
+        <v>7838.78295</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5132.51896</v>
+        <v>7934.95705</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9382.67583</v>
+        <v>13586.38625</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5765.04626</v>
+        <v>8197.0738</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>10327.51611</v>
+        <v>20091.83906</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6197.948179999999</v>
+        <v>15426.66455</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>23526.32173</v>
+        <v>35427.14643</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>16977.86067</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>37332.70739</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>36785.663</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>192.66258</v>
+        <v>254.22921</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>259.53898</v>
+        <v>456.52652</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>589.40099</v>
+        <v>780.59248</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>294.16646</v>
+        <v>662.4962800000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>415.51887</v>
+        <v>604.13328</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>570.39595</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>895.77851</v>
+        <v>1108.62975</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>804.46735</v>
+        <v>1002.16009</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>542.11523</v>
+        <v>1304.84908</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>716.09363</v>
+        <v>1920.03938</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>453.31206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3802.29623</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1926.028</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1279.09405</v>
+        <v>1315.09197</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>401.57232</v>
+        <v>423.17696</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>321.28012</v>
+        <v>357.11875</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>261.045</v>
+        <v>305.94025</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>592.68349</v>
+        <v>1539.55421</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>298.58714</v>
+        <v>412.58967</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>787.27741</v>
+        <v>935.37871</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>319.39982</v>
+        <v>417.29424</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>620.9270600000001</v>
+        <v>954.20809</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>548.24096</v>
+        <v>613.8009300000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>529.11748</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>924.03624</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1274.654</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4304.10322</v>
+        <v>6541.86788</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3771.8551</v>
+        <v>6296.3923</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>14218.18317</v>
+        <v>23289.72439</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5879.049059999999</v>
+        <v>6870.34642</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4124.3166</v>
+        <v>5791.26956</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8513.69274</v>
+        <v>12603.40063</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4081.99034</v>
+        <v>6153.06534</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>9203.648939999999</v>
+        <v>18672.38473</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5034.90589</v>
+        <v>13167.60738</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>22261.98714</v>
+        <v>32893.30612</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15995.43113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>32606.37492</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33584.981</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1560.59181</v>
+        <v>895.96124</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4249.067129999999</v>
+        <v>1926.02354</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-1347.30509</v>
+        <v>-3121.57528</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1695.72989</v>
+        <v>1649.30286</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2618.43135</v>
+        <v>180.91671</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-6786.99652</v>
+        <v>-5294.82618</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-5492.97701</v>
+        <v>-8830.44189</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-13755.12111</v>
+        <v>-10973.014</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1136.55427</v>
+        <v>-9845.359349999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5824.41007</v>
+        <v>243.34806</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>16742.16667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1141.43184</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>59883.122</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4413.70933</v>
+        <v>4988.81471</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4692.91284</v>
+        <v>5259.565900000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4993.40942</v>
+        <v>6471.36922</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4862.98434</v>
+        <v>5984.62922</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4978.29965</v>
+        <v>6514.49788</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4881.807870000001</v>
+        <v>6310.42368</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5117.926530000001</v>
+        <v>7304.7787</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4752.38606</v>
+        <v>7229.96086</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6250.48484</v>
+        <v>9935.768189999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>14458.30038</v>
+        <v>18197.35802</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>18120.67112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23877.35145</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>28624.437</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2853.11752</v>
+        <v>-4092.85347</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-443.84571</v>
+        <v>-3333.54236</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6340.71451</v>
+        <v>-9592.9445</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-6558.71423</v>
+        <v>-4335.32636</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2359.8683</v>
+        <v>-6333.581169999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-11668.80439</v>
+        <v>-11605.24986</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-10610.90354</v>
+        <v>-16135.22059</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-18507.50717</v>
+        <v>-18202.97486</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5113.93057</v>
+        <v>-19781.12754</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8633.890310000001</v>
+        <v>-17954.00996</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1378.50445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-25018.78329</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>31258.685</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3843</v>
+        <v>4013</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3803</v>
+        <v>4008</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3672</v>
+        <v>3924</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3465</v>
+        <v>3755</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3310</v>
+        <v>3675</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3219</v>
+        <v>3675</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3107</v>
+        <v>3701</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3051</v>
+        <v>3774</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3158</v>
+        <v>3942</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3851</v>
+        <v>4742</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5223</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>